--- a/data/group-b-2.xlsx
+++ b/data/group-b-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirmal/Documents/ML_DS/ml_dsc_cell/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirmal/Documents/data_science/microDSC_error_prediction_ANN/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6FCEDC-5C18-0848-B13D-5CA1C8B1B193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5497FB1D-942A-7047-ABFB-80E9635F7F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -85,7 +78,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -373,7 +366,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -383,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="93" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="93" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -417,11 +410,11 @@
       <c r="I1">
         <v>1.301946</v>
       </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
+      <c r="J1">
+        <v>0.6</v>
+      </c>
+      <c r="K1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -456,7 +449,7 @@
         <v>0.6</v>
       </c>
       <c r="K2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -491,7 +484,7 @@
         <v>0.6</v>
       </c>
       <c r="K3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -526,7 +519,7 @@
         <v>0.6</v>
       </c>
       <c r="K4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -561,7 +554,7 @@
         <v>0.6</v>
       </c>
       <c r="K5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -596,7 +589,7 @@
         <v>0.6</v>
       </c>
       <c r="K6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -631,7 +624,7 @@
         <v>0.6</v>
       </c>
       <c r="K7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -666,7 +659,7 @@
         <v>0.6</v>
       </c>
       <c r="K8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -701,7 +694,7 @@
         <v>0.6</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -736,7 +729,7 @@
         <v>0.6</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -771,7 +764,7 @@
         <v>0.6</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -806,7 +799,7 @@
         <v>0.6</v>
       </c>
       <c r="K12">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -841,7 +834,7 @@
         <v>0.6</v>
       </c>
       <c r="K13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -876,7 +869,7 @@
         <v>0.6</v>
       </c>
       <c r="K14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -911,7 +904,7 @@
         <v>0.6</v>
       </c>
       <c r="K15">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -946,7 +939,7 @@
         <v>0.6</v>
       </c>
       <c r="K16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -981,7 +974,7 @@
         <v>0.6</v>
       </c>
       <c r="K17">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1016,7 +1009,7 @@
         <v>0.6</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1051,7 +1044,7 @@
         <v>0.6</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1086,7 +1079,7 @@
         <v>0.6</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1121,7 +1114,7 @@
         <v>0.6</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -1156,7 +1149,7 @@
         <v>0.6</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -1191,7 +1184,7 @@
         <v>0.6</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -1226,7 +1219,7 @@
         <v>0.6</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -1261,7 +1254,7 @@
         <v>0.6</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -1296,7 +1289,7 @@
         <v>0.6</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -1331,7 +1324,7 @@
         <v>0.6</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -1366,7 +1359,7 @@
         <v>0.6</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -1401,7 +1394,7 @@
         <v>0.6</v>
       </c>
       <c r="K29">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -1436,7 +1429,7 @@
         <v>0.6</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
@@ -1471,7 +1464,7 @@
         <v>0.6</v>
       </c>
       <c r="K31">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -1506,7 +1499,7 @@
         <v>0.6</v>
       </c>
       <c r="K32">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -1541,7 +1534,7 @@
         <v>0.6</v>
       </c>
       <c r="K33">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -1576,7 +1569,7 @@
         <v>0.6</v>
       </c>
       <c r="K34">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
@@ -1611,7 +1604,7 @@
         <v>0.6</v>
       </c>
       <c r="K35">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -1646,7 +1639,7 @@
         <v>0.6</v>
       </c>
       <c r="K36">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
@@ -1681,7 +1674,7 @@
         <v>0.6</v>
       </c>
       <c r="K37">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
@@ -1716,7 +1709,7 @@
         <v>0.6</v>
       </c>
       <c r="K38">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
@@ -1751,7 +1744,7 @@
         <v>0.6</v>
       </c>
       <c r="K39">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
@@ -1786,7 +1779,7 @@
         <v>0.6</v>
       </c>
       <c r="K40">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
@@ -1821,7 +1814,7 @@
         <v>0.6</v>
       </c>
       <c r="K41">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
@@ -1856,7 +1849,7 @@
         <v>0.6</v>
       </c>
       <c r="K42">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
@@ -1891,7 +1884,7 @@
         <v>0.6</v>
       </c>
       <c r="K43">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
@@ -1926,7 +1919,7 @@
         <v>0.6</v>
       </c>
       <c r="K44">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
@@ -1961,7 +1954,7 @@
         <v>0.6</v>
       </c>
       <c r="K45">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
@@ -1996,7 +1989,7 @@
         <v>0.6</v>
       </c>
       <c r="K46">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
@@ -2031,7 +2024,7 @@
         <v>0.6</v>
       </c>
       <c r="K47">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
@@ -2066,7 +2059,7 @@
         <v>0.6</v>
       </c>
       <c r="K48">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
@@ -2101,7 +2094,7 @@
         <v>0.6</v>
       </c>
       <c r="K49">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -2136,7 +2129,7 @@
         <v>0.6</v>
       </c>
       <c r="K50">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
@@ -2171,7 +2164,7 @@
         <v>0.6</v>
       </c>
       <c r="K51">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
